--- a/play/oils/EssentialOils.xlsx
+++ b/play/oils/EssentialOils.xlsx
@@ -591,7 +591,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="99" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q6" sqref="Q6"/>
+      <selection pane="bottomLeft" activeCell="A16" sqref="A16:XFD18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
